--- a/TestCaseRegress.xlsx
+++ b/TestCaseRegress.xlsx
@@ -500,13 +500,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Login Successfully</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>You logged into a secure area!
-×</t>
+          <t>Login Successfully</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -536,13 +535,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Login Successfully</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>You logged into a secure area!
-×</t>
+          <t>Login Successfully</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -572,18 +570,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Login Fail</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Your username is invalid!
-×</t>
+          <t>Login Fail</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -608,18 +605,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Login Fail</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Your username is invalid!
-×</t>
+          <t>Login Fail</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -644,18 +640,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Login Fail</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Your username is invalid!
-×</t>
+          <t>Login Fail</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -680,18 +675,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Login Fail</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Your username is invalid!
-×</t>
+          <t>Login Fail</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -716,18 +710,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Login Fail</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Your username is invalid!
-×</t>
+          <t>Login Fail</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -752,18 +745,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Login Fail</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Your password is invalid!
-×</t>
+          <t>Login Fail</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -788,18 +780,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Login Fail</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Your password is invalid!
-×</t>
+          <t>Login Fail</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -824,18 +815,17 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Login Fail</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Your password is invalid!
-×</t>
+          <t>Login Fail</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -860,18 +850,17 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Login Fail</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Your password is invalid!
-×</t>
+          <t>Login Fail</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -896,18 +885,17 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Login Fail</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Your password is invalid!
-×</t>
+          <t>Login Fail</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -932,18 +920,17 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Login Fail</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Your password is invalid!
-×</t>
+          <t>Login Fail</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -968,18 +955,17 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Login Fail</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Your username is invalid!
-×</t>
+          <t>Login Fail</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -1004,18 +990,17 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Login Fail</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Your password is invalid!
-×</t>
+          <t>Login Fail</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -1040,18 +1025,17 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Login Fail</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Your username is invalid!
-×</t>
+          <t>Login Fail</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -1076,18 +1060,17 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Login Fail</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Your username is invalid!
-×</t>
+          <t>Login Fail</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -1112,18 +1095,17 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Login Fail</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Your username is invalid!
-×</t>
+          <t>Login Fail</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -1148,18 +1130,17 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Login Fail</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Your username is invalid!
-×</t>
+          <t>Login Fail</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -1184,18 +1165,17 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Login Fail</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Your username is invalid!
-×</t>
+          <t>Login Fail</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -1220,18 +1200,17 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Login Fail</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Your username is invalid!
-×</t>
+          <t>Login Fail</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
